--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -412,6 +412,100 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>291354</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>181536</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>168648</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1501589" y="7855323"/>
+          <a:ext cx="12597653" cy="3743325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>179297</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7631207" y="6611469"/>
+          <a:ext cx="9278471" cy="22414"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -830,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z57" sqref="Z57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -481,6 +481,201 @@
         <a:xfrm rot="5400000">
           <a:off x="7631207" y="6611469"/>
           <a:ext cx="9278471" cy="22414"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>529478</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>130548</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5737412" y="11665323"/>
+          <a:ext cx="14155831" cy="5229225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000500" y="8415618"/>
+          <a:ext cx="15172765" cy="8012206"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="989695" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15688235" y="14265089"/>
+          <a:ext cx="989695" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>end of header</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>78440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="6342529" y="14556440"/>
+          <a:ext cx="9536206" cy="2039471"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -924,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z57" sqref="Z57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I77" sqref="I77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48FC3CD-4D60-41F6-A6F3-AE60A86EDBEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="20370" yWindow="-5700" windowWidth="25440" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -33,8 +34,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +108,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -127,7 +136,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPr id="2049" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -174,7 +189,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -216,7 +237,13 @@
     <xdr:ext cx="6560322" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -273,7 +300,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPr id="2050" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -320,7 +353,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -367,7 +406,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Oval 8"/>
+        <xdr:cNvPr id="9" name="Oval 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -427,7 +472,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -474,7 +525,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -521,7 +578,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -568,7 +631,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -610,7 +679,13 @@
     <xdr:ext cx="989695" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14"/>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -669,7 +744,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -682,6 +763,164 @@
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ADDD7B4-6DC4-4AEE-A2CC-BF3B4F824717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="190500"/>
+          <a:ext cx="6076950" cy="5027731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>18241</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F85461-69A0-4810-87B5-EA7399038BA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="190501"/>
+          <a:ext cx="8467725" cy="4971240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79DA0762-A853-4EC5-AFA9-8A97437355B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5972175" y="609600"/>
+          <a:ext cx="4886325" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -747,7 +986,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -779,9 +1018,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -813,6 +1070,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -988,20 +1263,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:C26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1009,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1017,122 +1292,122 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="'put main image'!A1" display="Put main image"/>
+    <hyperlink ref="C5" location="'put main image'!A1" display="Put main image" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView showGridLines="0" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index!A1"/>
+    <hyperlink ref="A1" location="index!A1" display="index!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1140,13 +1415,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48FC3CD-4D60-41F6-A6F3-AE60A86EDBEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-5700" windowWidth="25440" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-5700" windowWidth="25440" windowHeight="15990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="put main image" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="script" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>No</t>
   </si>
@@ -30,12 +30,21 @@
   <si>
     <t>index!A1</t>
   </si>
+  <si>
+    <t>script</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://www.w3schools.com/tags/tag_script.asp</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,7 +148,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -192,7 +201,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -240,7 +249,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -303,7 +312,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -356,7 +365,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -409,7 +418,7 @@
         <xdr:cNvPr id="9" name="Oval 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -475,7 +484,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -528,7 +537,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -581,7 +590,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -634,7 +643,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -682,7 +691,7 @@
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -747,7 +756,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -805,7 +814,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ADDD7B4-6DC4-4AEE-A2CC-BF3B4F824717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3ADDD7B4-6DC4-4AEE-A2CC-BF3B4F824717}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,7 +826,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -855,7 +864,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F85461-69A0-4810-87B5-EA7399038BA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8F85461-69A0-4810-87B5-EA7399038BA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -867,7 +876,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -905,7 +914,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79DA0762-A853-4EC5-AFA9-8A97437355B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79DA0762-A853-4EC5-AFA9-8A97437355B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -940,6 +949,406 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="762000"/>
+          <a:ext cx="13992225" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1457325" y="1476375"/>
+          <a:ext cx="1733550" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>542926</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3124201" y="1390649"/>
+          <a:ext cx="5953125" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2122184" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2390775" y="2952750"/>
+          <a:ext cx="2122184" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>what does this mean? java</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> script?</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>278332</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="887932" y="3476625"/>
+          <a:ext cx="7094018" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6038850" y="2886075"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="3267075"/>
+          <a:ext cx="3524250" cy="1790700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1327351" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="5010150"/>
+          <a:ext cx="1327351" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>should be javascript</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -986,7 +1395,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1018,27 +1427,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1070,24 +1461,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1263,20 +1636,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1284,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1292,122 +1665,125 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3">
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="'put main image'!A1" display="Put main image" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" location="'put main image'!A1" display="Put main image"/>
+    <hyperlink ref="C7" location="script!A1" display="script"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" location="index!A1" display="index!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1415,16 +1791,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="index!A1" display="index!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885A25E3-B67F-454F-B5CB-712F4EBA9F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-5700" windowWidth="25440" windowHeight="15990" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="put main image" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="script" sheetId="4" r:id="rId4"/>
+    <sheet name="Link html" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="script" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -43,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,7 +150,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -201,7 +203,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -249,7 +251,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -312,7 +314,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -365,7 +367,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -418,7 +420,7 @@
         <xdr:cNvPr id="9" name="Oval 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -484,7 +486,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -537,7 +539,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -590,7 +592,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -643,7 +645,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -691,7 +693,7 @@
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -756,7 +758,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -814,7 +816,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3ADDD7B4-6DC4-4AEE-A2CC-BF3B4F824717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ADDD7B4-6DC4-4AEE-A2CC-BF3B4F824717}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -826,7 +828,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -864,7 +866,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8F85461-69A0-4810-87B5-EA7399038BA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F85461-69A0-4810-87B5-EA7399038BA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -876,7 +878,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -914,7 +916,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79DA0762-A853-4EC5-AFA9-8A97437355B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79DA0762-A853-4EC5-AFA9-8A97437355B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -969,7 +971,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPr id="2049" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1016,7 +1024,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1063,7 +1077,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1105,7 +1125,13 @@
     <xdr:ext cx="2122184" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1169,7 +1195,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPr id="2050" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1211,7 +1243,13 @@
     <xdr:ext cx="184731" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1265,7 +1303,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1307,7 +1351,13 @@
     <xdr:ext cx="1327351" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13"/>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1395,7 +1445,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1427,9 +1477,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1461,6 +1529,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1636,20 +1722,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:C26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1657,7 +1743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1665,13 +1751,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -1679,111 +1765,111 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="'put main image'!A1" display="Put main image"/>
-    <hyperlink ref="C7" location="script!A1" display="script"/>
+    <hyperlink ref="C5" location="'put main image'!A1" display="Put main image" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C7" location="script!A1" display="script" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C64" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index!A1"/>
+    <hyperlink ref="A1" location="index!A1" display="index!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1791,36 +1877,48 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46E415D-B15E-44CB-956C-2B6BB3ABEBD2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1830,7 +1928,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index!A1"/>
+    <hyperlink ref="A1" location="index!A1" display="index!A1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885A25E3-B67F-454F-B5CB-712F4EBA9F37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -13,13 +12,15 @@
     <sheet name="Link html" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
     <sheet name="script" sheetId="4" r:id="rId5"/>
+    <sheet name="class" sheetId="6" r:id="rId6"/>
+    <sheet name="web map" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>No</t>
   </si>
@@ -41,12 +42,18 @@
   <si>
     <t>https://www.w3schools.com/tags/tag_script.asp</t>
   </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>web  map</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,7 +157,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -203,7 +210,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -251,7 +258,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -314,7 +321,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -367,7 +374,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -420,7 +427,7 @@
         <xdr:cNvPr id="9" name="Oval 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -486,7 +493,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -539,7 +546,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -592,7 +599,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -645,7 +652,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -693,7 +700,7 @@
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -758,7 +765,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -816,7 +823,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ADDD7B4-6DC4-4AEE-A2CC-BF3B4F824717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3ADDD7B4-6DC4-4AEE-A2CC-BF3B4F824717}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -828,7 +835,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -866,7 +873,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F85461-69A0-4810-87B5-EA7399038BA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8F85461-69A0-4810-87B5-EA7399038BA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -878,7 +885,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -916,7 +923,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79DA0762-A853-4EC5-AFA9-8A97437355B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79DA0762-A853-4EC5-AFA9-8A97437355B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -974,7 +981,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1027,7 +1034,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1080,7 +1087,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1128,7 +1135,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1198,7 +1205,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1246,7 +1253,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1306,7 +1313,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1354,7 +1361,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,6 +1406,926 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="571500"/>
+          <a:ext cx="4200525" cy="4143375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1266825" y="762000"/>
+          <a:ext cx="3314700" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="808363" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="714375"/>
+          <a:ext cx="808363" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>nama class</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Freeform 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1285875" y="869950"/>
+          <a:ext cx="1079500" cy="1787525"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 704850 w 1079500"/>
+            <a:gd name="connsiteY0" fmla="*/ 1787525 h 1787525"/>
+            <a:gd name="connsiteX1" fmla="*/ 962025 w 1079500"/>
+            <a:gd name="connsiteY1" fmla="*/ 292100 h 1787525"/>
+            <a:gd name="connsiteX2" fmla="*/ 0 w 1079500"/>
+            <a:gd name="connsiteY2" fmla="*/ 34925 h 1787525"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1079500" h="1787525">
+              <a:moveTo>
+                <a:pt x="704850" y="1787525"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="892175" y="1185862"/>
+                <a:pt x="1079500" y="584200"/>
+                <a:pt x="962025" y="292100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="844550" y="0"/>
+                <a:pt x="422275" y="17462"/>
+                <a:pt x="0" y="34925"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:ln>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1153906" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="2019300"/>
+          <a:ext cx="1153906" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>merefensi ke sini</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>335272</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="944872" y="895350"/>
+          <a:ext cx="14819003" cy="7467600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8650941" y="1109382"/>
+          <a:ext cx="1086971" cy="1669677"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>369795</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9592235" y="1647265"/>
+          <a:ext cx="7115736" cy="358588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>89647</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Oval 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="694765" y="2420471"/>
+          <a:ext cx="15766676" cy="705970"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="568297" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16943294" y="1972235"/>
+          <a:ext cx="568297" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>iki opo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>186018</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>163605</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="568297" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17129312" y="2640105"/>
+          <a:ext cx="568297" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>iki opo</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="16640735" y="2801471"/>
+          <a:ext cx="336177" cy="56029"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Oval 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8841441" y="4919382"/>
+          <a:ext cx="896471" cy="526677"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Oval 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="773206" y="3462619"/>
+          <a:ext cx="15677029" cy="1680882"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>145678</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="16142074" y="3098427"/>
+          <a:ext cx="1075765" cy="818030"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>549088</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Oval 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="750794"/>
+          <a:ext cx="14915029" cy="437030"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15508941" y="1019735"/>
+          <a:ext cx="1423147" cy="930089"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1445,7 +2372,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1477,27 +2404,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1529,24 +2438,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1722,20 +2613,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="5.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1743,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -1751,13 +2642,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -1765,111 +2656,119 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8" s="2">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
+    <row r="9" spans="2:3">
+      <c r="B9" s="2">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="'put main image'!A1" display="Put main image" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C7" location="script!A1" display="script" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C5" location="'put main image'!A1" display="Put main image"/>
+    <hyperlink ref="C7" location="script!A1" display="script"/>
+    <hyperlink ref="C8" location="class!A1" display="class"/>
+    <hyperlink ref="C9" location="'web map'!A1" display="web  map"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A1" location="index!A1" display="index!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1877,26 +2776,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C46E415D-B15E-44CB-956C-2B6BB3ABEBD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1904,21 +2803,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1928,7 +2827,53 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index!A1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A1" location="index!A1" display="index!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="index!A1" display="index!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="index!A1" display="index!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5942C6D-E972-4F42-AFCC-E4CBE958C2C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="20370" yWindow="-5700" windowWidth="25440" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>No</t>
   </si>
@@ -48,12 +49,21 @@
   <si>
     <t>web  map</t>
   </si>
+  <si>
+    <t>tempat file index.php</t>
+  </si>
+  <si>
+    <t>mulai</t>
+  </si>
+  <si>
+    <t>selesai</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +167,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -210,7 +220,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -258,7 +268,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -321,7 +331,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -374,7 +384,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -427,7 +437,7 @@
         <xdr:cNvPr id="9" name="Oval 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -493,7 +503,7 @@
         <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000001040000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000001040000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -546,7 +556,7 @@
         <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -599,7 +609,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -652,7 +662,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -700,7 +710,7 @@
         <xdr:cNvPr id="15" name="TextBox 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -765,7 +775,7 @@
         <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -823,7 +833,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3ADDD7B4-6DC4-4AEE-A2CC-BF3B4F824717}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ADDD7B4-6DC4-4AEE-A2CC-BF3B4F824717}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -835,7 +845,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -873,7 +883,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F8F85461-69A0-4810-87B5-EA7399038BA0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8F85461-69A0-4810-87B5-EA7399038BA0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -885,7 +895,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -923,7 +933,7 @@
         <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{79DA0762-A853-4EC5-AFA9-8A97437355B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79DA0762-A853-4EC5-AFA9-8A97437355B3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -981,7 +991,7 @@
         <xdr:cNvPr id="2049" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1034,7 +1044,7 @@
         <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1087,7 +1097,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1135,7 +1145,7 @@
         <xdr:cNvPr id="7" name="TextBox 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1205,7 +1215,7 @@
         <xdr:cNvPr id="2050" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1253,7 +1263,7 @@
         <xdr:cNvPr id="11" name="TextBox 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1313,7 +1323,7 @@
         <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1361,7 +1371,7 @@
         <xdr:cNvPr id="14" name="TextBox 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1426,7 +1436,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="1025" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1473,7 +1489,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1515,7 +1537,13 @@
     <xdr:ext cx="808363" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1574,7 +1602,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Freeform 7"/>
+        <xdr:cNvPr id="8" name="Freeform 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1663,7 +1697,13 @@
     <xdr:ext cx="1153906" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1727,7 +1767,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2049" name="Picture 1"/>
+        <xdr:cNvPr id="2049" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000001080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1774,7 +1820,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Oval 3"/>
+        <xdr:cNvPr id="4" name="Oval 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1829,7 +1881,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1876,7 +1934,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Oval 6"/>
+        <xdr:cNvPr id="7" name="Oval 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1926,7 +1990,13 @@
     <xdr:ext cx="568297" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7"/>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1978,7 +2048,13 @@
     <xdr:ext cx="568297" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8"/>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2035,7 +2111,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2082,7 +2164,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Oval 11"/>
+        <xdr:cNvPr id="12" name="Oval 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2137,7 +2225,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Oval 12"/>
+        <xdr:cNvPr id="13" name="Oval 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2192,7 +2286,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2239,7 +2339,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Oval 15"/>
+        <xdr:cNvPr id="16" name="Oval 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2287,26 +2393,394 @@
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>593912</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>526676</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15508941" y="1019735"/>
-          <a:ext cx="1423147" cy="930089"/>
+          <a:ext cx="2566147" cy="56030"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
           <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDC1BE21-ADBC-4689-9202-44603095A160}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18153530" y="952501"/>
+          <a:ext cx="4202206" cy="3070412"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D76F3E2-222C-4EB1-889B-FD842BF0FD4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24204706" y="952500"/>
+          <a:ext cx="8505265" cy="6420255"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>403412</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{295D7294-4056-4E44-B502-695B6D9FD522}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="28238824" y="717176"/>
+          <a:ext cx="302558" cy="336177"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4B2902-1C50-428D-A503-45F3665083DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22288500" y="1053353"/>
+          <a:ext cx="2454088" cy="862853"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>111344</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA520291-35D9-4EC8-8834-8F9EEB068A4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24204706" y="8001000"/>
+          <a:ext cx="8550088" cy="5254844"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A950BF4-EEB2-4D9A-8417-187511CB9CCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26412265" y="1927412"/>
+          <a:ext cx="6712323" cy="78441"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>481852</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AD5F068-E6E3-45FA-992B-E35360CC00C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25291676" y="12662647"/>
+          <a:ext cx="7922559" cy="33618"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -2372,7 +2846,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2404,9 +2878,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2438,6 +2930,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2613,20 +3123,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:C26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="5.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2634,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -2642,13 +3152,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -2656,7 +3166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
@@ -2664,7 +3174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>5</v>
       </c>
@@ -2672,103 +3182,103 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="2:3">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="2:3">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" location="'put main image'!A1" display="Put main image"/>
-    <hyperlink ref="C7" location="script!A1" display="script"/>
-    <hyperlink ref="C8" location="class!A1" display="class"/>
-    <hyperlink ref="C9" location="'web map'!A1" display="web  map"/>
+    <hyperlink ref="C5" location="'put main image'!A1" display="Put main image" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C7" location="script!A1" display="script" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C8" location="class!A1" display="class" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C9" location="'web map'!A1" display="web  map" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="C49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index!A1"/>
+    <hyperlink ref="A1" location="index!A1" display="index!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2776,26 +3286,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2803,21 +3313,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -2827,7 +3337,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index!A1"/>
+    <hyperlink ref="A1" location="index!A1" display="index!A1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2835,23 +3345,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index!A1"/>
+    <hyperlink ref="A1" location="index!A1" display="index!A1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2859,21 +3369,38 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:BD67"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BD67" sqref="BD67"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="AV4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+      <c r="BD11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="56:56" x14ac:dyDescent="0.25">
+      <c r="BD67" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="index!A1" display="index!A1"/>
+    <hyperlink ref="A1" location="index!A1" display="index!A1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5942C6D-E972-4F42-AFCC-E4CBE958C2C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAA3241-8DED-4867-9D5A-6AD82C3FF20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-5700" windowWidth="25440" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,8 +20,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="BD11" authorId="0" shapeId="0" xr:uid="{581773CE-6856-43E8-BDD2-EFF621F711D7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+script ini untuk menyembunyikan site container "optimized by Nitropack.io
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -58,12 +93,33 @@
   <si>
     <t>selesai</t>
   </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>script tersebut berfungsi untuk menyembunyikan site container nitropack.io, tampilan diatas adalah contoh apabila baris script tersebut dihapus</t>
+  </si>
+  <si>
+    <t>section</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>folder: kolom_merah_atas</t>
+  </si>
+  <si>
+    <t>folder: kolom_putih_atas</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +134,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,7 +156,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -110,6 +179,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -118,7 +202,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -129,6 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1763,7 +1848,7 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>149038</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1987,7 +2072,7 @@
       <xdr:row>10</xdr:row>
       <xdr:rowOff>67235</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="568297" cy="264560"/>
+    <xdr:ext cx="611962" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="TextBox 7">
@@ -2002,7 +2087,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16943294" y="1972235"/>
-          <a:ext cx="568297" cy="264560"/>
+          <a:ext cx="611962" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2031,7 +2116,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>iki opo</a:t>
+            <a:t>column</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2045,7 +2130,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>163605</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="568297" cy="264560"/>
+    <xdr:ext cx="597792" cy="264560"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="TextBox 8">
@@ -2060,7 +2145,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="17129312" y="2640105"/>
-          <a:ext cx="568297" cy="264560"/>
+          <a:ext cx="597792" cy="264560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2089,7 +2174,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>iki opo</a:t>
+            <a:t>section</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2490,16 +2575,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
+      <xdr:colOff>22412</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>133755</xdr:rowOff>
+      <xdr:rowOff>111343</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2528,7 +2613,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="24204706" y="952500"/>
+          <a:off x="24193500" y="952500"/>
           <a:ext cx="8505265" cy="6420255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2540,10 +2625,10 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>403412</xdr:colOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>145676</xdr:rowOff>
+      <xdr:rowOff>145677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
@@ -2564,8 +2649,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="28238824" y="717176"/>
-          <a:ext cx="302558" cy="336177"/>
+          <a:off x="27532853" y="717177"/>
+          <a:ext cx="1008529" cy="336176"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2599,10 +2684,10 @@
       <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2618,7 +2703,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="22288500" y="1053353"/>
-          <a:ext cx="2454088" cy="862853"/>
+          <a:ext cx="2644588" cy="3092823"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2696,16 +2781,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>392206</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>224118</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>54</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>100853</xdr:rowOff>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2720,8 +2805,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="26412265" y="1927412"/>
-          <a:ext cx="6712323" cy="78441"/>
+          <a:off x="26849294" y="4179795"/>
+          <a:ext cx="6320118" cy="134470"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2775,6 +2860,765 @@
         <a:xfrm>
           <a:off x="25291676" y="12662647"/>
           <a:ext cx="7922559" cy="33618"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4778FA8D-117F-4B4F-9399-36C37B9D5D4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26367441" y="1938618"/>
+          <a:ext cx="6947647" cy="56029"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>515470</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDC5E8C6-3341-4DC9-AD89-F227FFB33633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="25325294" y="3776382"/>
+          <a:ext cx="7911353" cy="112060"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>376518</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>106904</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AC346DA-5924-4404-8AC6-6BC34B0DA6FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34491706" y="952500"/>
+          <a:ext cx="10058400" cy="1249904"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>414617</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>470648</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{000712CD-5CCF-4958-A27B-0684BEF98336}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="26434676" y="1748118"/>
+          <a:ext cx="10948148" cy="168088"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA67AADC-66B5-43AC-9088-D2AC42CABAE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33998647" y="2073088"/>
+          <a:ext cx="4000500" cy="212912"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F54B7A97-165F-4AC7-B201-AC3019C1C064}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9782735" y="5322794"/>
+          <a:ext cx="7048500" cy="112059"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Oval 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F5408A-9714-4BA6-BAB5-876F87E2EB24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6701118" y="1109382"/>
+          <a:ext cx="1792941" cy="1288677"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>448236</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{294C671F-ED0A-48B7-9D73-0FC9016709C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8471647" y="2005853"/>
+          <a:ext cx="8314765" cy="179294"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>435471</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>143746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="Picture 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A23366F6-6124-4CFD-8C5F-E2F2F3E4A430}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="8975912"/>
+          <a:ext cx="8907118" cy="6239746"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>335641</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="Picture 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE7F377F-2F65-4CD1-9062-0908CC933CFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="9166412"/>
+          <a:ext cx="8202170" cy="1562318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>168088</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>504265</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Straight Arrow Connector 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A403CC8-8039-4F5E-BCA5-6C22CBF0EA9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9244853" y="10141324"/>
+          <a:ext cx="941294" cy="123264"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rectangle 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF634B53-55BC-4B2D-8BA1-9A38C06263EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="470647" y="9861176"/>
+          <a:ext cx="8785412" cy="717177"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>225892</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>76849</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="Picture 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{035E4532-D029-46A9-89B9-5568516E6266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="11452412"/>
+          <a:ext cx="8697539" cy="4648849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2ECF211-4C58-40BB-8C1D-D495AD7A102D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13570324" y="11844618"/>
+          <a:ext cx="5602941" cy="100853"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3369,28 +4213,67 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:BD67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:BL67"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AE34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BD67" sqref="BD67"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG61" sqref="AG61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="AV4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="AB5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="BD11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="BL13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="29:56" x14ac:dyDescent="0.25">
+      <c r="BD20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="29:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="29:56" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="BD23" s="6" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="29:56" x14ac:dyDescent="0.25">
+      <c r="AC29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="18:33" x14ac:dyDescent="0.25">
+      <c r="R59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="18:33" x14ac:dyDescent="0.25">
+      <c r="AG63" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="56:56" x14ac:dyDescent="0.25">
@@ -3404,5 +4287,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAA3241-8DED-4867-9D5A-6AD82C3FF20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0514D7E-FEEC-431F-97D9-ADEB42D29D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-5700" windowWidth="25440" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>No</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>folder: kolom_putih_atas</t>
+  </si>
+  <si>
+    <t>pembentuk section hompage dari no 96 sampai 100</t>
+  </si>
+  <si>
+    <t>folder: bigredccMap/homepage</t>
   </si>
 </sst>
 </file>
@@ -3626,6 +3632,840 @@
         <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>573799</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>19930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57681DA7-0E5D-4F1C-8CFC-874CA9226D89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="605118" y="17167412"/>
+          <a:ext cx="8440328" cy="6306430"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Oval 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535E3F06-78C7-4EEB-9CAE-96CC12D3CCDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="515471" y="17514794"/>
+          <a:ext cx="4392705" cy="2442882"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>201706</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle: Rounded Corners 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D8E3987-078E-42C2-9F2F-AB8BEEE3EFF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="806824" y="17783735"/>
+          <a:ext cx="8157882" cy="5883089"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>44823</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>421341</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>40367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B28FBF-0E02-4EFF-8DF0-8E8A4C13067E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10331823" y="17201030"/>
+          <a:ext cx="10058400" cy="6102749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>168089</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80298B6F-2D20-4834-8150-4A157FB98B6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="2063" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8931088" y="18478501"/>
+          <a:ext cx="1546412" cy="201705"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>392206</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>212913</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28B141A6-DF48-4A3E-9590-BFC59BAF76DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="8258735" y="16887265"/>
+          <a:ext cx="3451413" cy="1411942"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>29055</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>146512</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2788AFB6-8811-4E51-8C30-2EF21752A883}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="5"/>
+          <a:endCxn id="63" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264879" y="19599924"/>
+          <a:ext cx="7859886" cy="167252"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Left Brace 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63052498-DEE7-4405-BC63-4084CB85E0A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12124765" y="19218088"/>
+          <a:ext cx="291353" cy="1098176"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2051" name="Straight Connector 2050">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{028D1775-B7B7-450C-BE84-4DB8F232FBFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12416118" y="20327471"/>
+          <a:ext cx="1199029" cy="33617"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>376518</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>161967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2053" name="Picture 2052">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFCBB80-4A54-45DF-9230-E0BD217D4129}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="23453912"/>
+          <a:ext cx="10058400" cy="5686467"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2054" name="Rectangle: Rounded Corners 2053">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A683A7-F923-4D84-AABB-154838CFD274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5759824" y="17974235"/>
+          <a:ext cx="2734235" cy="4695265"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="92D050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent3">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2056" name="Straight Arrow Connector 2055">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCCF8904-0DF8-4C45-939C-E95A313B8934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8415618" y="22501412"/>
+          <a:ext cx="4247029" cy="33617"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>560295</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>156884</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2059" name="Left Brace 2058">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{898275FF-D855-4D38-98CE-51E112B0C023}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12662648" y="20562794"/>
+          <a:ext cx="806824" cy="6275294"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 8333"/>
+            <a:gd name="adj2" fmla="val 31250"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2063" name="Left Brace 2062">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1CE9924-E569-4E49-ACD2-9A04D528D103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477500" y="18355235"/>
+          <a:ext cx="358589" cy="649941"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftBrace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>347382</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2067" name="Straight Connector 2066">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E55ED1-C503-4EE7-BA08-EEF2C6E0B195}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2063" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10836089" y="19005176"/>
+          <a:ext cx="1613646" cy="22412"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -4214,10 +5054,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:BL67"/>
+  <dimension ref="A1:BL90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG61" sqref="AG61"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R90" sqref="R90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4281,6 +5121,16 @@
         <v>11</v>
       </c>
     </row>
+    <row r="88" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="M88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="13:18" x14ac:dyDescent="0.25">
+      <c r="R90" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="index!A1" display="index!A1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>

--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0514D7E-FEEC-431F-97D9-ADEB42D29D17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6976F2E8-DE1D-4D79-B245-FCC8E4F77E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-5700" windowWidth="25440" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-5700" windowWidth="25440" windowHeight="15990" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,8 @@
     <sheet name="script" sheetId="4" r:id="rId5"/>
     <sheet name="class" sheetId="6" r:id="rId6"/>
     <sheet name="web map" sheetId="7" r:id="rId7"/>
+    <sheet name="kelas wordpress" sheetId="8" r:id="rId8"/>
+    <sheet name="Course content" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
   <si>
     <t>No</t>
   </si>
@@ -119,13 +121,223 @@
   </si>
   <si>
     <t>folder: bigredccMap/homepage</t>
+  </si>
+  <si>
+    <t>kelas wordpress</t>
+  </si>
+  <si>
+    <t>judul</t>
+  </si>
+  <si>
+    <t>sudah dipelajari</t>
+  </si>
+  <si>
+    <t>Course Overview</t>
+  </si>
+  <si>
+    <t>https://youtu.be/XDXplsmv28s</t>
+  </si>
+  <si>
+    <t>Konsep Website</t>
+  </si>
+  <si>
+    <t>https://youtu.be/S1tTQbjyM_8</t>
+  </si>
+  <si>
+    <t>https://youtu.be/andcmXHP7tc</t>
+  </si>
+  <si>
+    <t>Opsi membuat website</t>
+  </si>
+  <si>
+    <t>modul 1: konsep dasar website</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MODUL  </t>
+  </si>
+  <si>
+    <t>https://youtu.be/KaY7P6LriNc</t>
+  </si>
+  <si>
+    <t>Tutorial Instal Web Gratis dengan Pantheon.io</t>
+  </si>
+  <si>
+    <t>modul 2a: InstalasiWebsite (Opsi Gratis)</t>
+  </si>
+  <si>
+    <t>modul 2b: Instalasi Website (Opsi berbayar)</t>
+  </si>
+  <si>
+    <t>Membeli dan Mendaftar Hosting (Plus Domain .com)</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Bn0S4UrKiBk</t>
+  </si>
+  <si>
+    <t>Instalasi WordPress di Hostinger</t>
+  </si>
+  <si>
+    <t>https://youtu.be/zu0RuSKNqzU</t>
+  </si>
+  <si>
+    <t>Project 1: Professional Website</t>
+  </si>
+  <si>
+    <t>Menambahkan Tema dan Plugin Elementor</t>
+  </si>
+  <si>
+    <t>https://youtu.be/81l-Il-pIN0</t>
+  </si>
+  <si>
+    <t>Mengenal Dashboard Elementor</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Fn8qlmbCoRM</t>
+  </si>
+  <si>
+    <t>sedang dipelajari</t>
+  </si>
+  <si>
+    <t>Course Content</t>
+  </si>
+  <si>
+    <t>Modul 1: Konsep Dasar Website</t>
+  </si>
+  <si>
+    <t>Praktek Bikin Website (Intro)</t>
+  </si>
+  <si>
+    <t>Modul 2a: Instalasi Website (Opsi Gratis)</t>
+  </si>
+  <si>
+    <t>Instalasi Hosting Gratis, Domain dan Wordpress</t>
+  </si>
+  <si>
+    <t>Modul 2b: Instalasi Website (Opsi Berbayar)</t>
+  </si>
+  <si>
+    <t>Instalasi Wordpress di Hostinger</t>
+  </si>
+  <si>
+    <t>Membuat Homepage (Halaman Utama)</t>
+  </si>
+  <si>
+    <t>Menginstal Elementor Pro</t>
+  </si>
+  <si>
+    <t>Membuat Header, Whatsapp Link dan Footer</t>
+  </si>
+  <si>
+    <t>(Troubleshoot) Menu Tidak Muncul</t>
+  </si>
+  <si>
+    <t>Membuat Halaman Responsive (Versi Mobile)</t>
+  </si>
+  <si>
+    <t>Membuat Template Post/Artikel</t>
+  </si>
+  <si>
+    <t>Menampilkan Artikel di Homepage</t>
+  </si>
+  <si>
+    <t>Project 2: Website Custom</t>
+  </si>
+  <si>
+    <t>Membuat Website Custom dengan Elements Kits</t>
+  </si>
+  <si>
+    <t>Menambah Link Halaman di Menu Header</t>
+  </si>
+  <si>
+    <t>Menambahkan Fitur di Website Wordpress</t>
+  </si>
+  <si>
+    <t>Modul 3: Pengenalan UI/UX Website</t>
+  </si>
+  <si>
+    <t>Dasar-dasar UI/UX Website</t>
+  </si>
+  <si>
+    <t>UX Website - Step by Step</t>
+  </si>
+  <si>
+    <t>UI Website - Step by Step</t>
+  </si>
+  <si>
+    <t>Membuat Prototype Website</t>
+  </si>
+  <si>
+    <t>Modul 4: Website Marketing</t>
+  </si>
+  <si>
+    <t>Studi Kasus 1 - Cateringsemeru.com</t>
+  </si>
+  <si>
+    <t>Search Engine Optimization Untuk Bisnis Lokal</t>
+  </si>
+  <si>
+    <t>Studi Kasus 2 - Habiskerja.com</t>
+  </si>
+  <si>
+    <t>Optimasi Website Untuk Bisnis</t>
+  </si>
+  <si>
+    <t>Modul 5 - Menghasilkan Uang Dari Website</t>
+  </si>
+  <si>
+    <t>Freelancing Worksheet</t>
+  </si>
+  <si>
+    <t>Mindset Sukses Freelancing</t>
+  </si>
+  <si>
+    <t>Listing Client Gratis Untuk Portofolio</t>
+  </si>
+  <si>
+    <t>Briefing Kepada Client</t>
+  </si>
+  <si>
+    <t>Menerjemahkan Hasil Briefing</t>
+  </si>
+  <si>
+    <t>Membuat Quotation Letter</t>
+  </si>
+  <si>
+    <t>Pengerjaan #1. Benchmarking</t>
+  </si>
+  <si>
+    <t>Pengerjaan #2. Design</t>
+  </si>
+  <si>
+    <t>Pengerjaan #3. Content</t>
+  </si>
+  <si>
+    <t>Revisi dan Finalisasi</t>
+  </si>
+  <si>
+    <t>Menawarkan Jasa Berbayar</t>
+  </si>
+  <si>
+    <t>Menentukan Harga Jual Website</t>
+  </si>
+  <si>
+    <t>Strategi Marketing Organik</t>
+  </si>
+  <si>
+    <t>Bonus Section</t>
+  </si>
+  <si>
+    <t>Download Premium Plugin + Template</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +365,39 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -208,7 +446,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -220,6 +458,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5056,7 +5300,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:BL90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R90" sqref="R90"/>
     </sheetView>
   </sheetViews>
@@ -5139,4 +5383,480 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83149C9-4E17-442A-A65F-329A5464DC67}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>1.2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>1.3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43A09CB-C2DB-4BA7-8D31-0EE27CA5CD1E}">
+  <dimension ref="A3:B53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="B3" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="8"/>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" display="https://habiskerja.com/lessons/kenapa-membuat-website/" xr:uid="{5F9043D9-6450-4947-B69F-E40E2978660B}"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://habiskerja.com/lessons/mengenal-hosting-domain-dan-wordpress/" xr:uid="{10FFAED1-E62A-487E-BDD0-1EE56FD88288}"/>
+    <hyperlink ref="B8" r:id="rId3" display="https://habiskerja.com/lessons/praktek-bikin-website-intro/" xr:uid="{BB4DCD71-7D28-4438-B3F1-AA4F43CF581F}"/>
+    <hyperlink ref="B10" r:id="rId4" display="https://habiskerja.com/lessons/instalasi-hosting-gratis-domain-dan-wordpress/" xr:uid="{61B3A17C-5965-4C0D-BFCB-038AF409D3B5}"/>
+    <hyperlink ref="B12" r:id="rId5" display="https://habiskerja.com/lessons/membeli-dan-mendaftar-hosting-plus-domain-com/" xr:uid="{372B5A03-33EC-4E2D-A29B-C2A3520C98C1}"/>
+    <hyperlink ref="B13" r:id="rId6" display="https://habiskerja.com/lessons/instalasi-wordpress-di-hostinger/" xr:uid="{8366EBAE-B7B1-454C-9F30-C261060A644A}"/>
+    <hyperlink ref="B15" r:id="rId7" display="https://habiskerja.com/lessons/menambahkan-tema-dan-plugin-elementor/" xr:uid="{197A5584-09F2-4A2A-924B-31859686E695}"/>
+    <hyperlink ref="B16" r:id="rId8" display="https://habiskerja.com/lessons/mengenal-dashboard-elementor/" xr:uid="{7C325C24-6FC7-43D5-9854-E4F90B6700C8}"/>
+    <hyperlink ref="B17" r:id="rId9" display="https://habiskerja.com/lessons/membuat-homepage-halaman-utama/" xr:uid="{D2FECEB3-70E5-4B76-9B30-FA79F772B42D}"/>
+    <hyperlink ref="B18" r:id="rId10" display="https://habiskerja.com/lessons/menginstal-elementor-pro/" xr:uid="{F8BB4175-FB8D-46AC-BDA2-AAA89CB7F36C}"/>
+    <hyperlink ref="B19" r:id="rId11" display="https://habiskerja.com/lessons/membuat-header-whatsapp-link-dan-footer/" xr:uid="{167AD34E-6E42-4E6B-893A-1D07961BD072}"/>
+    <hyperlink ref="B20" r:id="rId12" display="https://habiskerja.com/lessons/troubleshoot-menu-tidak-muncul/" xr:uid="{63262EE5-521C-4933-8010-343B55F37385}"/>
+    <hyperlink ref="B21" r:id="rId13" display="https://habiskerja.com/lessons/membuat-halaman-responsive-versi-mobile/" xr:uid="{E64A8BBF-6223-4EAD-938B-4E66968A2CAC}"/>
+    <hyperlink ref="B22" r:id="rId14" display="https://habiskerja.com/lessons/membuat-template-post-artikel/" xr:uid="{C6FA55FE-1B58-48D8-BC5A-56F0140499CB}"/>
+    <hyperlink ref="B23" r:id="rId15" display="https://habiskerja.com/lessons/menampilkan-artikel-di-homepage/" xr:uid="{D798A20D-4582-482C-B960-F2D8535EDABA}"/>
+    <hyperlink ref="B25" r:id="rId16" display="https://habiskerja.com/lessons/membuat-website-custom-dengan-elements-kits/" xr:uid="{772D74A2-DCEB-42AA-B228-E876F6148781}"/>
+    <hyperlink ref="B26" r:id="rId17" display="https://habiskerja.com/lessons/menambah-link-halaman-di-menu-header/" xr:uid="{0BBA70DB-07A2-49C8-8B7D-1AB4338DB2B5}"/>
+    <hyperlink ref="B27" r:id="rId18" display="https://habiskerja.com/lessons/menambahkan-fitur-di-website-wordpress/" xr:uid="{2D303A95-6C2F-4ABE-A3BA-CD8F4F12BB8E}"/>
+    <hyperlink ref="B29" r:id="rId19" display="https://habiskerja.com/lessons/dasar-dasar-ui-ux-website/" xr:uid="{47942F19-E0CC-4A31-8663-7723F12FE616}"/>
+    <hyperlink ref="B30" r:id="rId20" display="https://habiskerja.com/lessons/ux-website-step-by-step/" xr:uid="{17CCAE98-138F-4FD6-831D-5590CA2BAA51}"/>
+    <hyperlink ref="B31" r:id="rId21" display="https://habiskerja.com/lessons/ui-website-step-by-step/" xr:uid="{71358D7B-3B16-4FD4-B464-1B36A72D426E}"/>
+    <hyperlink ref="B32" r:id="rId22" display="https://habiskerja.com/lessons/membuat-prototype-website/" xr:uid="{71BD09D7-6611-4863-AC9C-0C037FA2F12B}"/>
+    <hyperlink ref="B34" r:id="rId23" display="https://habiskerja.com/lessons/studi-kasus-1-cateringsemeru-com/" xr:uid="{A8C9475E-F4F8-4F7C-B147-78D64135E193}"/>
+    <hyperlink ref="B35" r:id="rId24" display="https://habiskerja.com/lessons/search-engine-optimization-untuk-bisnis-lokal/" xr:uid="{6F538E45-902A-4182-9DBE-CD46E14A8232}"/>
+    <hyperlink ref="B36" r:id="rId25" display="https://habiskerja.com/lessons/studi-kasus-2-habiskerja-com/" xr:uid="{F97319C3-02EB-442B-985B-D6A8FA2C19FD}"/>
+    <hyperlink ref="B37" r:id="rId26" display="https://habiskerja.com/lessons/optimasi-website-untuk-bisnis/" xr:uid="{741F6ACF-6820-43E8-85AA-3DA91D378E2E}"/>
+    <hyperlink ref="B39" r:id="rId27" display="https://habiskerja.com/lessons/freelancing-worksheet/" xr:uid="{338A66EE-9D31-4149-A068-AAF65B8568B2}"/>
+    <hyperlink ref="B40" r:id="rId28" display="https://habiskerja.com/lessons/mindset-sukses-freelancing/" xr:uid="{80759110-9C48-405A-A312-F5D4D0B34E0D}"/>
+    <hyperlink ref="B41" r:id="rId29" display="https://habiskerja.com/lessons/listing-client-gratis-untuk-portofolio/" xr:uid="{8179A2A0-393B-4857-8402-C9CFCDC35E72}"/>
+    <hyperlink ref="B42" r:id="rId30" display="https://habiskerja.com/lessons/briefing-kepada-client/" xr:uid="{49362F92-9502-4089-B8A1-C9D6A5740FF3}"/>
+    <hyperlink ref="B43" r:id="rId31" display="https://habiskerja.com/lessons/menerjemahkan-hasil-briefing/" xr:uid="{F3C92C7A-3444-4F4B-A7E8-F0059527DFA3}"/>
+    <hyperlink ref="B44" r:id="rId32" display="https://habiskerja.com/lessons/membuat-quotation-letter/" xr:uid="{5D0C2AE4-8588-40D8-8E02-BFA7B7978D56}"/>
+    <hyperlink ref="B45" r:id="rId33" display="https://habiskerja.com/lessons/pengerjaan-1-benchmarking/" xr:uid="{E816737A-5C6C-4EBC-B683-C870D929DC62}"/>
+    <hyperlink ref="B46" r:id="rId34" display="https://habiskerja.com/lessons/pengerjaan-2-design/" xr:uid="{82756D23-ABA1-4E9F-BF20-3D58545B2C22}"/>
+    <hyperlink ref="B47" r:id="rId35" display="https://habiskerja.com/lessons/pengerjaan-3-content/" xr:uid="{B393ADCC-5290-48FC-A7F1-4A7658EAB3D2}"/>
+    <hyperlink ref="B48" r:id="rId36" display="https://habiskerja.com/lessons/revisi-dan-finalisasi/" xr:uid="{3C9C2703-15F0-46B1-8AD0-6651BFF06BC5}"/>
+    <hyperlink ref="B49" r:id="rId37" display="https://habiskerja.com/lessons/menawarkan-jasa-berbayar/" xr:uid="{843A176E-3971-4DFF-8233-1A4044159D45}"/>
+    <hyperlink ref="B50" r:id="rId38" display="https://habiskerja.com/lessons/menentukan-harga-jual-website/" xr:uid="{2E0F5634-B2C3-4542-9F73-E04A0C0D2509}"/>
+    <hyperlink ref="B51" r:id="rId39" display="https://habiskerja.com/lessons/strategi-marketing-organik/" xr:uid="{9CF4716A-ADA4-4BFE-9F9D-E13715478675}"/>
+    <hyperlink ref="B53" r:id="rId40" display="https://habiskerja.com/lessons/download-premium-plugin-template/" xr:uid="{A371AEA4-268B-40F7-A8DD-98D4AD3DAA84}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6976F2E8-DE1D-4D79-B245-FCC8E4F77E62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FB0FF8-CA87-45A6-81FD-6ADEAFAF796E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-5700" windowWidth="25440" windowHeight="15990" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -57,8 +57,96 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{2E99699C-ADF4-4E4F-9253-4BA82C275341}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Di video kali ini, kita akan belajar tentang:
+1. Proses instalasi tema Astra
+2. Cara menginstal plugin elementor</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{F8845446-5FD2-40BA-A23D-B88ADC9F9811}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Di video kali ini, kita akan belajar tentang:
+1. Section, Column dan Component
+2. Elementor Panel</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{CAC7F67D-83CF-467D-AF90-114DB5196673}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Di video kali ini, kita akan belajar tentang:
+1. Proses pembuatan halaman utama (Homepage)
+2. Menampilkan halaman utama di domain</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
   <si>
     <t>No</t>
   </si>
@@ -331,6 +419,30 @@
   </si>
   <si>
     <t>Download Premium Plugin + Template</t>
+  </si>
+  <si>
+    <t>website:</t>
+  </si>
+  <si>
+    <t>login:</t>
+  </si>
+  <si>
+    <t>https://dev-sawiji.pantheonsite.io/wp-admin</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dev-sawiji.pantheonsite.io/ </t>
+  </si>
+  <si>
+    <t>https://youtu.be/DjvXzuRtP_c</t>
   </si>
 </sst>
 </file>
@@ -374,7 +486,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +508,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,7 +564,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -464,6 +582,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5386,29 +5505,31 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83149C9-4E17-442A-A65F-329A5464DC67}">
-  <dimension ref="A1:G16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83149C9-4E17-442A-A65F-329A5464DC67}">
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="49.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>31</v>
       </c>
@@ -5418,11 +5539,17 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K5" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>23</v>
       </c>
@@ -5435,11 +5562,17 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K6" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
@@ -5449,11 +5582,17 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K7" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
@@ -5463,11 +5602,17 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K8" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>23</v>
       </c>
@@ -5477,11 +5622,11 @@
       <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
@@ -5491,22 +5636,22 @@
       <c r="E12" t="s">
         <v>37</v>
       </c>
-      <c r="G12" t="s">
+      <c r="F12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E13" t="s">
         <v>39</v>
       </c>
-      <c r="G13" t="s">
+      <c r="F13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
@@ -5519,13 +5664,13 @@
       <c r="E15" t="s">
         <v>42</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>46</v>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D16">
         <v>2.2999999999999998</v>
@@ -5533,12 +5678,31 @@
       <c r="E16" t="s">
         <v>44</v>
       </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
         <v>45</v>
       </c>
     </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17">
+        <v>3.1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L6" r:id="rId1" xr:uid="{3A7A48D1-B2E0-4433-8641-820E67117CEE}"/>
+    <hyperlink ref="L5" r:id="rId2" xr:uid="{C2DE13AF-E75D-46A5-BC0D-D2A27096E15C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -5546,7 +5710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43A09CB-C2DB-4BA7-8D31-0EE27CA5CD1E}">
   <dimension ref="A3:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FB0FF8-CA87-45A6-81FD-6ADEAFAF796E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C069DCA-DE7B-4623-A2EA-06E5B4B44223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="web map" sheetId="7" r:id="rId7"/>
     <sheet name="kelas wordpress" sheetId="8" r:id="rId8"/>
     <sheet name="Course content" sheetId="9" r:id="rId9"/>
+    <sheet name="laporan harian" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -141,12 +142,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{64DD0F69-0E5B-4107-A368-986D68C28A42}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Silahkan download elementor pro v.3.0.9 di link berikut:
+https://drive.google.com/file/d/1sXOlXbM6ugRd8BTWFBi6k0OzNCa2AutV/view?usp=sharing
+Silahkan klik tombol “mark complete” untuk dapat melanjutkan ke video selanjutnya.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
   <si>
     <t>No</t>
   </si>
@@ -286,9 +313,6 @@
     <t>https://youtu.be/Fn8qlmbCoRM</t>
   </si>
   <si>
-    <t>sedang dipelajari</t>
-  </si>
-  <si>
     <t>Course Content</t>
   </si>
   <si>
@@ -443,6 +467,42 @@
   </si>
   <si>
     <t>https://youtu.be/DjvXzuRtP_c</t>
+  </si>
+  <si>
+    <t>hari</t>
+  </si>
+  <si>
+    <t>agustus</t>
+  </si>
+  <si>
+    <t>selasa</t>
+  </si>
+  <si>
+    <t>kegiatan</t>
+  </si>
+  <si>
+    <t>liat youtube roadmap menjadi web developer</t>
+  </si>
+  <si>
+    <t>liat youtube pengertian laravel</t>
+  </si>
+  <si>
+    <t>searching hostinger</t>
+  </si>
+  <si>
+    <t>bikin website sawiji di pantheon</t>
+  </si>
+  <si>
+    <t>https://youtu.be/8pgwUt4lPnw</t>
+  </si>
+  <si>
+    <t>belum dilihat</t>
+  </si>
+  <si>
+    <t>belajar wordpress habiskerja.com 2 video</t>
+  </si>
+  <si>
+    <t>praktek bikin landingpage restoran sawiji</t>
   </si>
 </sst>
 </file>
@@ -486,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -514,6 +574,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,7 +630,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,6 +649,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5308,6 +5375,67 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35381CA1-C12E-45A8-A488-199E92B2201B}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
@@ -5506,10 +5634,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83149C9-4E17-442A-A65F-329A5464DC67}">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5543,10 +5671,10 @@
         <v>5</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -5566,10 +5694,10 @@
         <v>25</v>
       </c>
       <c r="K6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -5586,10 +5714,10 @@
         <v>27</v>
       </c>
       <c r="K7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" t="s">
         <v>94</v>
-      </c>
-      <c r="L7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -5606,10 +5734,10 @@
         <v>28</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -5683,17 +5811,28 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>46</v>
+      <c r="B17" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="D17">
         <v>3.1</v>
       </c>
       <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" t="s">
         <v>54</v>
       </c>
-      <c r="F17" t="s">
-        <v>98</v>
+      <c r="F18" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -5718,7 +5857,7 @@
   <sheetData>
     <row r="3" spans="1:2" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -5730,7 +5869,7 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -5742,25 +5881,25 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -5772,7 +5911,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -5795,187 +5934,187 @@
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B39" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B40" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B44" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B45" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B46" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B47" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B48" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B50" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B51" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C069DCA-DE7B-4623-A2EA-06E5B4B44223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BACA27-9B82-4923-A037-52CFF3492537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,12 +168,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{766B5D3D-4374-4B0C-B7FC-5A3A757D47C6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Di video kali ini, kita akan belajar tentang:
+1. Membuat header dan mengubah footer
+2. Membuat tombol “hubungi kami” via Whatsapp</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="118">
   <si>
     <t>No</t>
   </si>
@@ -496,13 +522,37 @@
     <t>https://youtu.be/8pgwUt4lPnw</t>
   </si>
   <si>
-    <t>belum dilihat</t>
-  </si>
-  <si>
     <t>belajar wordpress habiskerja.com 2 video</t>
   </si>
   <si>
     <t>praktek bikin landingpage restoran sawiji</t>
+  </si>
+  <si>
+    <t>rabu</t>
+  </si>
+  <si>
+    <t>bikin website akhtarcarpet</t>
+  </si>
+  <si>
+    <t>belajar wordpress habis kerja.com 2 video</t>
+  </si>
+  <si>
+    <t>praktek wordpress dari kelas</t>
+  </si>
+  <si>
+    <t>update header, footer, wa akhtarcarpet</t>
+  </si>
+  <si>
+    <t>update header, footer, wa sawiji</t>
+  </si>
+  <si>
+    <t>https://youtu.be/R86LxN1FrE8</t>
+  </si>
+  <si>
+    <t>menambah link sosial media di header akhtar</t>
+  </si>
+  <si>
+    <t>menambah menu dan sub-menu pada header akhtar</t>
   </si>
 </sst>
 </file>
@@ -546,7 +596,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,12 +624,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +674,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -649,7 +693,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5377,10 +5420,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35381CA1-C12E-45A8-A488-199E92B2201B}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5413,7 +5456,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -5428,7 +5471,45 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>109</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5634,10 +5715,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83149C9-4E17-442A-A65F-329A5464DC67}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5825,14 +5906,25 @@
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
-        <v>107</v>
+      <c r="B18" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
       </c>
       <c r="F18" t="s">
         <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23BACA27-9B82-4923-A037-52CFF3492537}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93721747-DF2D-4870-8231-5B90693525D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="123">
   <si>
     <t>No</t>
   </si>
@@ -553,6 +553,21 @@
   </si>
   <si>
     <t>menambah menu dan sub-menu pada header akhtar</t>
+  </si>
+  <si>
+    <t>kamis</t>
+  </si>
+  <si>
+    <t>beli domain</t>
+  </si>
+  <si>
+    <t>beli hosting</t>
+  </si>
+  <si>
+    <t>migrasi wordpress</t>
+  </si>
+  <si>
+    <t>sinkronisasi</t>
   </si>
 </sst>
 </file>
@@ -5420,10 +5435,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35381CA1-C12E-45A8-A488-199E92B2201B}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5502,14 +5517,37 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93721747-DF2D-4870-8231-5B90693525D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B28A14F-7C7F-4CCC-9947-7AD56D187B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -64,7 +64,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E15" authorId="0" shapeId="0" xr:uid="{2E99699C-ADF4-4E4F-9253-4BA82C275341}">
+    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{2E99699C-ADF4-4E4F-9253-4BA82C275341}">
       <text>
         <r>
           <rPr>
@@ -90,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E16" authorId="0" shapeId="0" xr:uid="{F8845446-5FD2-40BA-A23D-B88ADC9F9811}">
+    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{F8845446-5FD2-40BA-A23D-B88ADC9F9811}">
       <text>
         <r>
           <rPr>
@@ -116,7 +116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E17" authorId="0" shapeId="0" xr:uid="{CAC7F67D-83CF-467D-AF90-114DB5196673}">
+    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{CAC7F67D-83CF-467D-AF90-114DB5196673}">
       <text>
         <r>
           <rPr>
@@ -142,7 +142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E18" authorId="0" shapeId="0" xr:uid="{64DD0F69-0E5B-4107-A368-986D68C28A42}">
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{64DD0F69-0E5B-4107-A368-986D68C28A42}">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{766B5D3D-4374-4B0C-B7FC-5A3A757D47C6}">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{766B5D3D-4374-4B0C-B7FC-5A3A757D47C6}">
       <text>
         <r>
           <rPr>
@@ -194,12 +194,140 @@
         </r>
       </text>
     </comment>
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{C6251A8D-2481-431F-A0BE-B53BD4E5CCCB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Jika anda tidak mengalami masalah diatas, anda bisa lanjut ke video selanjutnya.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E22" authorId="0" shapeId="0" xr:uid="{2B449601-18EB-4627-8D32-C83CD3A99F8E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Di video kali ini, kita akan belajar tentang:
+1. Fitur desain responsive di Elementor
+2. Margin &amp; padding</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{4DF67CC6-FDC4-420E-8470-737A504EFF5A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Di video kali ini, kita akan belajar tentang:
+1. Cara membuat template halaman artikel
+2. Membuat postingan/artikel baru
+Untuk mendownload Elementor Pro, silahkan klik link ini:
+https://drive.google.com/file/d/1ou-839RIpp9EDL_igZhzYd-ytK9Li97d/view?usp=sharing </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{BD14ADAF-04BB-45FA-909E-495D2770C2B8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Di video kali ini, kita akan belajar tentang cara menampilkan artikel terbaru di homepage/halaman depan.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E27" authorId="0" shapeId="0" xr:uid="{10CD7BA2-C5B3-42E2-8D84-B5B21398D694}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Untuk mengakses list 530+ template elements kit sesuai arahan di video, silahkan kunjungi link:
+https://drive.google.com/drive/folders/1G7RkmtebgJ4WTGK-H7-7PaZU3Oe2AzM9?usp=sharing</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="141">
   <si>
     <t>No</t>
   </si>
@@ -568,6 +696,60 @@
   </si>
   <si>
     <t>sinkronisasi</t>
+  </si>
+  <si>
+    <t>jumat</t>
+  </si>
+  <si>
+    <t>edit akhtarcarpet versi responsif web untuk mobile</t>
+  </si>
+  <si>
+    <t>edit header</t>
+  </si>
+  <si>
+    <t>edit section</t>
+  </si>
+  <si>
+    <t>finishing</t>
+  </si>
+  <si>
+    <t>https://youtu.be/QAl19G5gFuM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/rusU4XnZYzk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/sWpx_J5JJTk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/DqGITBytUM0</t>
+  </si>
+  <si>
+    <t>belajar video wordpress di habiskerja.com 4 video</t>
+  </si>
+  <si>
+    <t>praktek membuat template post (di website sawiji)</t>
+  </si>
+  <si>
+    <t>praktek membuat post/artikel (di website sawiji)</t>
+  </si>
+  <si>
+    <t>praktek menampilkan section untuk artikel/post yang sudah dibuat</t>
+  </si>
+  <si>
+    <t>Project 1</t>
+  </si>
+  <si>
+    <t>Project 2</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3mNtQGtCxPI</t>
+  </si>
+  <si>
+    <t>belum dipelajari</t>
+  </si>
+  <si>
+    <t>nonton youtube: apa itu git &amp; github</t>
   </si>
 </sst>
 </file>
@@ -611,7 +793,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +821,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,7 +883,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -708,6 +902,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5435,10 +5631,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35381CA1-C12E-45A8-A488-199E92B2201B}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5548,6 +5744,54 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5753,10 +5997,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83149C9-4E17-442A-A65F-329A5464DC67}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5797,46 +6041,33 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>92</v>
-      </c>
+      <c r="B6" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="K6" s="11"/>
+      <c r="L6" s="4"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
       <c r="D7">
-        <v>1.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -5844,89 +6075,95 @@
         <v>23</v>
       </c>
       <c r="D8">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D9">
+        <v>1.3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>35</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>34</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
       <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E15" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
       <c r="D16">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -5934,24 +6171,27 @@
         <v>23</v>
       </c>
       <c r="D17">
-        <v>3.1</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="D18">
+        <v>3.1</v>
+      </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -5959,15 +6199,86 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
         <v>55</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L6" r:id="rId1" xr:uid="{3A7A48D1-B2E0-4433-8641-820E67117CEE}"/>
+    <hyperlink ref="L7" r:id="rId1" xr:uid="{3A7A48D1-B2E0-4433-8641-820E67117CEE}"/>
     <hyperlink ref="L5" r:id="rId2" xr:uid="{C2DE13AF-E75D-46A5-BC0D-D2A27096E15C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5979,7 +6290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43A09CB-C2DB-4BA7-8D31-0EE27CA5CD1E}">
   <dimension ref="A3:B53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>

--- a/doc/study.xlsx
+++ b/doc/study.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B28A14F-7C7F-4CCC-9947-7AD56D187B70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1733F8-56E4-446D-A7A5-46B0FC692D49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="11040" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="kelas wordpress" sheetId="8" r:id="rId8"/>
     <sheet name="Course content" sheetId="9" r:id="rId9"/>
     <sheet name="laporan harian" sheetId="10" r:id="rId10"/>
+    <sheet name="SEO" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -326,8 +327,42 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="P12" authorId="0" shapeId="0" xr:uid="{CD9702B0-3083-4BAC-856B-48E4DEB163F1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+google keyword planner</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="248">
   <si>
     <t>No</t>
   </si>
@@ -750,13 +785,334 @@
   </si>
   <si>
     <t>nonton youtube: apa itu git &amp; github</t>
+  </si>
+  <si>
+    <t>https://youtu.be/L59dV3wESOI</t>
+  </si>
+  <si>
+    <t>Menambahkan Fitur di Website WordPress</t>
+  </si>
+  <si>
+    <t>https://youtu.be/izonIPOdzbo</t>
+  </si>
+  <si>
+    <t>edit header &amp; footer custom</t>
+  </si>
+  <si>
+    <t>edit Logo Website dari database</t>
+  </si>
+  <si>
+    <t>cari + mengaktifkan fitur most sale // featured sale</t>
+  </si>
+  <si>
+    <t>edit icon logo pada tab title website</t>
+  </si>
+  <si>
+    <t>sabtu minggu senin</t>
+  </si>
+  <si>
+    <t>upgrade hosting</t>
+  </si>
+  <si>
+    <t>bikin web baru pakai cara sub domain</t>
+  </si>
+  <si>
+    <t>install element kit</t>
+  </si>
+  <si>
+    <t>kofigurasi template element kit</t>
+  </si>
+  <si>
+    <t>seting woo commerce</t>
+  </si>
+  <si>
+    <t>migrasi website dari pantheon</t>
+  </si>
+  <si>
+    <t>belajar + seting payment gateway</t>
+  </si>
+  <si>
+    <t>belajar + input produk</t>
+  </si>
+  <si>
+    <t>mengaktifkan opsi beli/cart/masukkan ke keranjang</t>
+  </si>
+  <si>
+    <t>senin</t>
+  </si>
+  <si>
+    <t>23 agsts</t>
+  </si>
+  <si>
+    <t>buat page featured carpet</t>
+  </si>
+  <si>
+    <t>https://www.hostinger.co.id/tutorial/cara-seo-wordpress#7-Menambahkan-Sitemap-ke-Google</t>
+  </si>
+  <si>
+    <t>30 tips SEO</t>
+  </si>
+  <si>
+    <t>1. Install Plugin SEO WordPress</t>
+  </si>
+  <si>
+    <t>2. Riset Keyword (Kata Kunci)</t>
+  </si>
+  <si>
+    <t>3. Aktifkan Search Engine Visibility</t>
+  </si>
+  <si>
+    <t>4. Atur Struktur Permalink</t>
+  </si>
+  <si>
+    <t>5. Tambahkan Situs ke Google Search Console</t>
+  </si>
+  <si>
+    <t>6. Mengintegrasikan Google Analytics</t>
+  </si>
+  <si>
+    <t>Daftar Isi</t>
+  </si>
+  <si>
+    <t>7. Menambahkan Sitemap ke Google</t>
+  </si>
+  <si>
+    <t>8. Mengoptimalkan Situs untuk Perangkat Mobile</t>
+  </si>
+  <si>
+    <t>9. Naikkan Kecepatan Loading Website</t>
+  </si>
+  <si>
+    <t>Cari Baseline Number</t>
+  </si>
+  <si>
+    <t>Upgrade Paket Hosting yang Digunakan</t>
+  </si>
+  <si>
+    <t>Menggunakan CDN</t>
+  </si>
+  <si>
+    <t>Gunakan Plugin Caching</t>
+  </si>
+  <si>
+    <t>Mengoptimalkan Media</t>
+  </si>
+  <si>
+    <t>10. Memperbaiki Link Rusak</t>
+  </si>
+  <si>
+    <t>11. Tentukan Focus Keyword di Setiap Postingan</t>
+  </si>
+  <si>
+    <t>12. Membuat Konten yang Berkualitas</t>
+  </si>
+  <si>
+    <t>13. Membuat Konten yang Lebih Panjang</t>
+  </si>
+  <si>
+    <t>14. Membuat Konten dengan Topik dan Informasi yang Relevan Sepanjang Masa</t>
+  </si>
+  <si>
+    <t>15. Tambahkan Link ke Website yang Berkualitas</t>
+  </si>
+  <si>
+    <t>Menambahkan Hyperlink</t>
+  </si>
+  <si>
+    <t>Ubah Opsi Link</t>
+  </si>
+  <si>
+    <t>16. Interlink Konten</t>
+  </si>
+  <si>
+    <t>17. Mengoptimalkan Judul Postingan dan Halaman</t>
+  </si>
+  <si>
+    <t>18. Mengoptimalkan Header Tag</t>
+  </si>
+  <si>
+    <t>19. Gunakan URL yang Pendek</t>
+  </si>
+  <si>
+    <t>20. Mengoptimalkan Meta Description</t>
+  </si>
+  <si>
+    <t>21. Menambahkan Schema Markup</t>
+  </si>
+  <si>
+    <t>22. Mengoptimalkan Google SERP</t>
+  </si>
+  <si>
+    <t>23. Mengoptimalkan Gambar</t>
+  </si>
+  <si>
+    <t>Image Title Text</t>
+  </si>
+  <si>
+    <t>Alt Text</t>
+  </si>
+  <si>
+    <t>Nama File</t>
+  </si>
+  <si>
+    <t>24. Link Afiliasi No-Follow</t>
+  </si>
+  <si>
+    <t>25. Menambahkan HTTPS ke Situs</t>
+  </si>
+  <si>
+    <t>26. Memasang Backlink Berkualitas</t>
+  </si>
+  <si>
+    <t>27. Audit SEO</t>
+  </si>
+  <si>
+    <t>28. Memonitor Profil Backlink</t>
+  </si>
+  <si>
+    <t>29. Force Google untuk Menjelajahi Situs Anda</t>
+  </si>
+  <si>
+    <t>30. Menargetkan Long-Tail Keyword</t>
+  </si>
+  <si>
+    <t>24 agsts</t>
+  </si>
+  <si>
+    <t>memperbaiki link produk most sale, featured carpet, recently add yang tidak muncul di halaman website</t>
+  </si>
+  <si>
+    <t>install woo title limit + konfigurasi, untuk membatasi judul huruf produk yang tampil di website</t>
+  </si>
+  <si>
+    <t>install Aquila + konfigurasi, untuk merubah tampilan dashboard dan halaman login</t>
+  </si>
+  <si>
+    <t>seting halaman responsive home dan featured carpet</t>
+  </si>
+  <si>
+    <t>compare AIO SEO dan Yoast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">belajar SEO + praktek </t>
+  </si>
+  <si>
+    <t>instal squirlly + nyobain fitur seo di produk</t>
+  </si>
+  <si>
+    <t>konfigurasi squrilly dengan google analytics, google search console</t>
+  </si>
+  <si>
+    <t>daftar google tag manager id kemudian digabungkan ke wordpress</t>
+  </si>
+  <si>
+    <t>menghidupkan fitur sitemap di plugin seo untuk digabungkan dengan google</t>
+  </si>
+  <si>
+    <t>do keyword research menggunakan squirlly</t>
+  </si>
+  <si>
+    <t>tools SEO</t>
+  </si>
+  <si>
+    <t>AIO SEO</t>
+  </si>
+  <si>
+    <t>Yoast SEO</t>
+  </si>
+  <si>
+    <t>plugin seo untuk WP, Pilih salah satu saja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">squirrly SEO </t>
+  </si>
+  <si>
+    <t>plugin seo Tambahan untuk WP mudah di gunakan dan tidak crash dengan plugin seo lain</t>
+  </si>
+  <si>
+    <t>https://kwfinder.com/</t>
+  </si>
+  <si>
+    <t>https://www.semrush.com/</t>
+  </si>
+  <si>
+    <t>https://ads.google.com/home/tools/keyword-planner/#!#%3Fmodal_active=none</t>
+  </si>
+  <si>
+    <t>website untuk riset keyword</t>
+  </si>
+  <si>
+    <t>setting permalink pada website</t>
+  </si>
+  <si>
+    <t>*setting &gt; permalinks</t>
+  </si>
+  <si>
+    <t>kemudian pilih *Post name</t>
+  </si>
+  <si>
+    <t>Google Search Console</t>
+  </si>
+  <si>
+    <t>tools untuk  menunjukkan tampilan situs di mesin pencari dan memberi peringatan kalau terjadi error</t>
+  </si>
+  <si>
+    <t>Analytic Google</t>
+  </si>
+  <si>
+    <t>Tools untuk menampilkan sejauh mana strategi SEO berhasil</t>
+  </si>
+  <si>
+    <t>Sitemap</t>
+  </si>
+  <si>
+    <t>*menambahkan sitemap ke Google</t>
+  </si>
+  <si>
+    <t>opsi tersebut bisa diaktifkan di plugin seo wp</t>
+  </si>
+  <si>
+    <t>Google's mobile-friendliness test</t>
+  </si>
+  <si>
+    <t>website tools dari google untuk melakukan test apakah website sudah mobile friendly/ responsive atau belum. Website responsif sangat diperhatikan oleh google untuk indexing</t>
+  </si>
+  <si>
+    <t>GTMetrix</t>
+  </si>
+  <si>
+    <t>website tools untuk melihat kecepatan loading website kita</t>
+  </si>
+  <si>
+    <t>Cloudflare</t>
+  </si>
+  <si>
+    <t>plugin gratis untuk optimasi CDN</t>
+  </si>
+  <si>
+    <t>w3 total cache</t>
+  </si>
+  <si>
+    <t>wp super cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pilih salah satu, plugin wp untuk caching </t>
+  </si>
+  <si>
+    <t>Tiny PNG</t>
+  </si>
+  <si>
+    <t>website tools untuk memperkecil size gambar agar loading lebih cepat</t>
+  </si>
+  <si>
+    <t>belajar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -792,8 +1148,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -836,8 +1214,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -875,6 +1259,110 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -883,7 +1371,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -904,6 +1392,55 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5631,13 +6168,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35381CA1-C12E-45A8-A488-199E92B2201B}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76:C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -5789,13 +6329,771 @@
         <v>135</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>140</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="17"/>
+      <c r="B36" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="17"/>
+      <c r="B37" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>158</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>210</v>
+      </c>
+      <c r="D57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>100</v>
+      </c>
+      <c r="B68" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>214</v>
+      </c>
+      <c r="J73" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" t="s">
+        <v>247</v>
+      </c>
+      <c r="C76" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A35:A37"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2060C7AE-B970-4204-A246-A5D28003980A}">
+  <dimension ref="B1:Q48"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="6.7109375" customWidth="1"/>
+    <col min="14" max="14" width="3.28515625" customWidth="1"/>
+    <col min="15" max="15" width="2.5703125" customWidth="1"/>
+    <col min="16" max="16" width="37.5703125" style="20" customWidth="1"/>
+    <col min="17" max="17" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P1" s="22"/>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P2" s="22"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="P5" s="22"/>
+    </row>
+    <row r="6" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="P6" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q6" s="19"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="P8" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q8" s="24"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="H9" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" s="27" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q9" s="28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="H10" t="s">
+        <v>164</v>
+      </c>
+      <c r="P10" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q10" s="30" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" t="s">
+        <v>165</v>
+      </c>
+      <c r="P11" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q11" s="31"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12" t="s">
+        <v>166</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q12" s="32"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" t="s">
+        <v>167</v>
+      </c>
+      <c r="P13" s="20" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" t="s">
+        <v>168</v>
+      </c>
+      <c r="P14" s="34" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" t="s">
+        <v>170</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q15" s="29"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="H16" t="s">
+        <v>171</v>
+      </c>
+      <c r="P16" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q16" s="28" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B17" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="H17" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q17" s="28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" t="s">
+        <v>173</v>
+      </c>
+      <c r="P18" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q18" s="30"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" t="s">
+        <v>174</v>
+      </c>
+      <c r="P19" s="34" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q19" s="31"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" t="s">
+        <v>175</v>
+      </c>
+      <c r="P20" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q20" s="32"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" t="s">
+        <v>176</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q21" s="28" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" t="s">
+        <v>177</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q22" s="36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" t="s">
+        <v>178</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q23" s="36" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H24" t="s">
+        <v>179</v>
+      </c>
+      <c r="P24" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q24" s="37" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B25" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="H25" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q25" s="38"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="H26" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q26" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B27" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="H27" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B28" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="H28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="H29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B30" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B31" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="H31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="H32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="H33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="H34" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="H35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="H36" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="H37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="H39" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="H40" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="H41" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H42" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H44" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="H45" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="H46" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="H47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="H48" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="Q18:Q20"/>
+    <mergeCell ref="Q24:Q25"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" location="1-Install-Plugin-SEO-WordPress" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 1-Install-Plugin-SEO-WordPress" xr:uid="{EBDF62D7-A67F-495E-B8AA-925554FD2F53}"/>
+    <hyperlink ref="B10" r:id="rId2" location="2-Riset-Keyword-Kata-Kunci" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 2-Riset-Keyword-Kata-Kunci" xr:uid="{264032EC-705C-4799-A87E-F6099AFEB5F7}"/>
+    <hyperlink ref="B11" r:id="rId3" location="3-Aktifkan-Search-Engine-Visibility" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 3-Aktifkan-Search-Engine-Visibility" xr:uid="{6FE90295-34BE-409F-9B5C-E7CEE0E5D77C}"/>
+    <hyperlink ref="B12" r:id="rId4" location="4-Atur-Struktur-Permalink" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 4-Atur-Struktur-Permalink" xr:uid="{9C259F02-6C90-46B6-BCF4-AE2E31233E20}"/>
+    <hyperlink ref="B13" r:id="rId5" location="5-Tambahkan-Situs-ke-Google-Search-Console" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 5-Tambahkan-Situs-ke-Google-Search-Console" xr:uid="{6B62362C-427B-480C-8EB8-CA7FDFB397F8}"/>
+    <hyperlink ref="B14" r:id="rId6" location="6-Mengintegrasikan-Google-Analytics" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 6-Mengintegrasikan-Google-Analytics" xr:uid="{FF8840F1-FA67-432A-9338-A1083C234F01}"/>
+    <hyperlink ref="B15" r:id="rId7" location="7-Menambahkan-Sitemap-ke-Google" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 7-Menambahkan-Sitemap-ke-Google" xr:uid="{F8D9ED6D-7E16-45B7-8F3B-9DAF16D162F3}"/>
+    <hyperlink ref="B16" r:id="rId8" location="8-Mengoptimalkan-Situs-untuk-Perangkat-Mobile" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 8-Mengoptimalkan-Situs-untuk-Perangkat-Mobile" xr:uid="{CAB8A936-3688-4612-AE49-B0A1CD8BB160}"/>
+    <hyperlink ref="B17" r:id="rId9" location="9-Naikkan-Kecepatan-Loading-Website" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 9-Naikkan-Kecepatan-Loading-Website" xr:uid="{B7EE5AA6-35AF-403C-9789-30676F1FB12D}"/>
+    <hyperlink ref="B18" r:id="rId10" location="Cari-Baseline-Number" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - Cari-Baseline-Number" xr:uid="{95E86566-2A08-43F9-9B14-B320BF3C0129}"/>
+    <hyperlink ref="B19" r:id="rId11" location="Upgrade-Paket-Hosting-yang-Digunakan" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - Upgrade-Paket-Hosting-yang-Digunakan" xr:uid="{8EF1DC21-F852-4189-806F-86B18626D917}"/>
+    <hyperlink ref="B20" r:id="rId12" location="Menggunakan-CDN" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - Menggunakan-CDN" xr:uid="{5C27338F-1EC7-488D-9907-1DB27EC29604}"/>
+    <hyperlink ref="B21" r:id="rId13" location="Gunakan-Plugin-Caching" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - Gunakan-Plugin-Caching" xr:uid="{F2630CC4-F992-41C5-8B04-8F692A84B314}"/>
+    <hyperlink ref="B22" r:id="rId14" location="Mengoptimalkan-Media" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - Mengoptimalkan-Media" xr:uid="{926161AE-C047-4840-944F-540752B1AF55}"/>
+    <hyperlink ref="B23" r:id="rId15" location="10-Memperbaiki-Link-Rusak" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 10-Memperbaiki-Link-Rusak" xr:uid="{C31EA84D-D21A-4631-BD78-86F030C4E248}"/>
+    <hyperlink ref="B24" r:id="rId16" location="11-Tentukan-Focus-Keyword-di-Setiap-Postingan" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 11-Tentukan-Focus-Keyword-di-Setiap-Postingan" xr:uid="{DFE9DB33-CE96-44D7-8DE6-9DAFA9F94146}"/>
+    <hyperlink ref="B25" r:id="rId17" location="12-Membuat-Konten-yang-Berkualitas" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 12-Membuat-Konten-yang-Berkualitas" xr:uid="{F451DFA7-782F-474D-AE89-D4EC764058FE}"/>
+    <hyperlink ref="B26" r:id="rId18" location="13-Membuat-Konten-yang-Lebih-Panjang" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 13-Membuat-Konten-yang-Lebih-Panjang" xr:uid="{1BAE4282-868E-463C-BB95-A105951403D2}"/>
+    <hyperlink ref="B27" r:id="rId19" location="14-Membuat-Konten-dengan-Topik-dan-Informasi-yang-Relevan-Sepanjang-Masa" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 14-Membuat-Konten-dengan-Topik-dan-Informasi-yang-Relevan-Sepanjang-Masa" xr:uid="{DCA83B6B-9F6E-46D5-B301-44AE3D73B1B5}"/>
+    <hyperlink ref="B28" r:id="rId20" location="15-Tambahkan-Link-ke-Website-yang-Berkualitas" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 15-Tambahkan-Link-ke-Website-yang-Berkualitas" xr:uid="{08EE8D2F-2F52-4FD8-98FD-4FF987107735}"/>
+    <hyperlink ref="B29" r:id="rId21" location="Menambahkan-Hyperlink" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - Menambahkan-Hyperlink" xr:uid="{56B15F54-6A70-4965-B52E-2AB56DE7D624}"/>
+    <hyperlink ref="B30" r:id="rId22" location="Ubah-Opsi-Link" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - Ubah-Opsi-Link" xr:uid="{789DA9F6-64E8-4B4C-BCBF-68C716BCC11F}"/>
+    <hyperlink ref="B31" r:id="rId23" location="16-Interlink-Konten" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 16-Interlink-Konten" xr:uid="{F9DC9C03-411E-40AC-A12A-7378DADA9D0B}"/>
+    <hyperlink ref="B32" r:id="rId24" location="17-Mengoptimalkan-Judul-Postingan-dan-Halaman" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 17-Mengoptimalkan-Judul-Postingan-dan-Halaman" xr:uid="{599149C2-D45C-4E4C-B2BE-E985D8970C29}"/>
+    <hyperlink ref="B33" r:id="rId25" location="18-Mengoptimalkan-Header-Tag" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 18-Mengoptimalkan-Header-Tag" xr:uid="{3CB365D8-71E8-4268-9D18-89A67E84FBDC}"/>
+    <hyperlink ref="B34" r:id="rId26" location="19-Gunakan-URL-yang-Pendek" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 19-Gunakan-URL-yang-Pendek" xr:uid="{F03BECEA-FB24-40E1-B7C2-CFFDD5AF0BEF}"/>
+    <hyperlink ref="B35" r:id="rId27" location="20-Mengoptimalkan-Meta-Description" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 20-Mengoptimalkan-Meta-Description" xr:uid="{9C4C4270-ABED-4692-9164-5D96ADDFCA1A}"/>
+    <hyperlink ref="B36" r:id="rId28" location="21-Menambahkan-Schema-Markup" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 21-Menambahkan-Schema-Markup" xr:uid="{1CF3F2A6-5C10-48A9-8EDA-2D83B6AC4B60}"/>
+    <hyperlink ref="B37" r:id="rId29" location="22-Mengoptimalkan-Google-SERP" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 22-Mengoptimalkan-Google-SERP" xr:uid="{04E19448-0E4C-40C7-85AD-063075234804}"/>
+    <hyperlink ref="B38" r:id="rId30" location="23-Mengoptimalkan-Gambar" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 23-Mengoptimalkan-Gambar" xr:uid="{3BBBB6BE-43B9-4341-9A58-B8B9E3FF3D92}"/>
+    <hyperlink ref="B39" r:id="rId31" location="Image-Title-Text" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - Image-Title-Text" xr:uid="{A5D2A034-E99A-444A-BB25-44DD537588C3}"/>
+    <hyperlink ref="B40" r:id="rId32" location="Alt-Text" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - Alt-Text" xr:uid="{CFB20139-3948-461C-AF66-040D695F55B1}"/>
+    <hyperlink ref="B41" r:id="rId33" location="Nama-File" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - Nama-File" xr:uid="{CE99CE34-21B1-4F0A-8B51-53D6F9C4299A}"/>
+    <hyperlink ref="B42" r:id="rId34" location="24-Link-Afiliasi-No-Follow" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 24-Link-Afiliasi-No-Follow" xr:uid="{5756E32C-F6B0-43B3-BC21-FCA4F5BC5DD5}"/>
+    <hyperlink ref="B43" r:id="rId35" location="25-Menambahkan-HTTPS-ke-Situs" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 25-Menambahkan-HTTPS-ke-Situs" xr:uid="{4375C48D-AB18-4F16-9580-F6B1893C345A}"/>
+    <hyperlink ref="B44" r:id="rId36" location="26-Memasang-Backlink-Berkualitas" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 26-Memasang-Backlink-Berkualitas" xr:uid="{2BEF75B0-102B-43F9-A209-EEC727D8529D}"/>
+    <hyperlink ref="B45" r:id="rId37" location="27-Audit-SEO" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 27-Audit-SEO" xr:uid="{5DC54454-81CD-42B3-B039-CE62092E5BBA}"/>
+    <hyperlink ref="B46" r:id="rId38" location="28-Memonitor-Profil-Backlink" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 28-Memonitor-Profil-Backlink" xr:uid="{54E974AA-30F3-48F0-8478-25438919091A}"/>
+    <hyperlink ref="B47" r:id="rId39" location="29-Force-Google-untuk-Menjelajahi-Situs-Anda" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 29-Force-Google-untuk-Menjelajahi-Situs-Anda" xr:uid="{B500DF72-522B-498D-BB0B-C380DA601591}"/>
+    <hyperlink ref="B48" r:id="rId40" location="30-Menargetkan-Long-Tail-Keyword" display="https://www.hostinger.co.id/tutorial/cara-seo-wordpress - 30-Menargetkan-Long-Tail-Keyword" xr:uid="{C88AA4DB-562E-48E2-9CA2-0400A8B5D829}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId41"/>
+  <legacyDrawing r:id="rId42"/>
 </worksheet>
 </file>
 
@@ -5997,10 +7295,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83149C9-4E17-442A-A65F-329A5464DC67}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6266,14 +7564,33 @@
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="13" t="s">
-        <v>139</v>
+      <c r="B27" s="7" t="s">
+        <v>23</v>
       </c>
       <c r="E27" t="s">
         <v>61</v>
       </c>
       <c r="F27" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
